--- a/Lidl Bakeoff Kalkulator FINAL.xlsx
+++ b/Lidl Bakeoff Kalkulator FINAL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bbalu\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5D99348-CE4F-4DD5-92C2-16F9E61AB845}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D477827-34F7-4DE5-AAE0-F47DA0E081F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="89">
   <si>
     <t>LIDL BAKE-OFF KÉSZLET KALKULÁTOR - 71 TERMÉK</t>
   </si>
@@ -70,14 +70,6 @@
 karton</t>
   </si>
   <si>
-    <t>Készlet +20%
-(ajánlott)</t>
-  </si>
-  <si>
-    <t>Készlet +30%
-(biztonságos)</t>
-  </si>
-  <si>
     <t>Francia Baguette, (FGY) 125g</t>
   </si>
   <si>
@@ -291,58 +283,7 @@
     <t>Mediterrán ciabatta olívás, 300g (MM)</t>
   </si>
   <si>
-    <t>HASZNÁLATI ÚTMUTATÓ:</t>
-  </si>
-  <si>
-    <t>✅ Mind a 71 termék előre be van töltve (A-C oszlopok)!</t>
-  </si>
-  <si>
-    <t>📝 ELŐSZÖR: Töltsd ki a D oszlopot (PLU) a napi riportokból!</t>
-  </si>
-  <si>
-    <t>🔢 MAJD TÖLTSD KI (E-G oszlopokat) - Claude automatikusan párosít PLU alapján:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - E oszlop: Péntek teljes napi eladás (darabban)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - F oszlop: Szombat teljes napi eladás (darabban)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   - G oszlop: Vasárnap teljes napi eladás (darabban)</t>
-  </si>
-  <si>
-    <t>📊 AUTOMATIKUS SZÁMÍTÁSOK (H-K oszlopok):</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • H oszlop = Összes fogyás a 3 napos kritikus időszakban</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • I oszlop = Minimum hány karton szükséges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • J oszlop = Ajánlott készlet (+20% biztonsági tartalék) ← AJÁNLOTT!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • K oszlop = Biztonságos készlet (+30% biztonsági tartalék)</t>
-  </si>
-  <si>
-    <t>⚠️ FONTOS:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • A PLU oszlopot (D) használom a riportokkal való párosításhoz!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • A kovászos krémsajtos pogácsa kg-ban van mérve!</t>
-  </si>
-  <si>
     <t>📦 Összesen 71 termék a kamrában!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • A kovászos krémsajtos pogácsa kg-ban van mérve - ezt manuálisan kell számolni!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   • A többi termék kartonban van megadva (db/karton)</t>
   </si>
   <si>
     <t xml:space="preserve">PLU
@@ -350,13 +291,30 @@
   </si>
   <si>
     <t>Mákos burkifli, 120g</t>
+  </si>
+  <si>
+    <t>Akciós</t>
+  </si>
+  <si>
+    <t>X(páros)22-28</t>
+  </si>
+  <si>
+    <t>X 22-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Készlet +20%
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Készlet +30%
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -396,8 +354,16 @@
       <sz val="10"/>
       <name val="Calibri"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -434,6 +400,30 @@
         <bgColor rgb="FFA9D08E"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFFFF2CC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFC6E0B4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFA9D08E"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -462,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -482,19 +472,47 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -798,11 +816,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:O97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
+      <pane ySplit="4" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -814,39 +832,42 @@
     <col min="8" max="8" width="20" customWidth="1"/>
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="11" width="22" customWidth="1"/>
+    <col min="12" max="12" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-    </row>
-    <row r="4" spans="1:11" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="13"/>
+    </row>
+    <row r="4" spans="1:12" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -856,8 +877,8 @@
       <c r="C4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="12" t="s">
-        <v>101</v>
+      <c r="D4" s="7" t="s">
+        <v>82</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>5</v>
@@ -874,16 +895,19 @@
       <c r="I4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J4" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>6703867</v>
@@ -894,29 +918,36 @@
       <c r="D5" s="3">
         <v>800</v>
       </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
+      <c r="E5" s="3">
+        <v>73</v>
+      </c>
+      <c r="F5" s="3">
+        <v>40</v>
+      </c>
+      <c r="G5" s="3">
+        <v>62</v>
+      </c>
       <c r="H5" s="4">
         <f t="shared" ref="H5:H36" si="0">E5+F5+G5</f>
-        <v>0</v>
+        <v>175</v>
       </c>
       <c r="I5" s="4">
         <f t="shared" ref="I5:I36" si="1">IF(C5=0,"",ROUNDUP(H5/C5,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J5" s="5">
         <f t="shared" ref="J5:J36" si="2">IF(I5="","",ROUNDUP(I5*1.2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="K5" s="6">
-        <f t="shared" ref="K5:K36" si="3">IF(I5="","",ROUNDUP(I5*1.3,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="K5" s="17">
+        <f t="shared" ref="K5:L36" si="3">IF(I5="","",ROUNDUP(I5*1.3,0))</f>
+        <v>4</v>
+      </c>
+      <c r="L5" s="3"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="3">
         <v>6416941</v>
@@ -927,29 +958,36 @@
       <c r="D6" s="3">
         <v>953</v>
       </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
+      <c r="E6" s="3">
+        <v>56</v>
+      </c>
+      <c r="F6" s="3">
+        <v>54</v>
+      </c>
+      <c r="G6" s="3">
+        <v>43</v>
+      </c>
       <c r="H6" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J6" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K6" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L6" s="3"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3">
         <v>6409244</v>
@@ -960,29 +998,36 @@
       <c r="D7" s="3">
         <v>981</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
+      <c r="E7" s="3">
+        <v>43</v>
+      </c>
+      <c r="F7" s="3">
+        <v>101</v>
+      </c>
+      <c r="G7" s="3">
+        <v>66</v>
+      </c>
       <c r="H7" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>210</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J7" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K7" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="3">
         <v>144723</v>
@@ -993,29 +1038,36 @@
       <c r="D8" s="3">
         <v>859</v>
       </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
+      <c r="E8" s="3">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3">
+        <v>27</v>
+      </c>
+      <c r="G8" s="3">
+        <v>28</v>
+      </c>
       <c r="H8" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J8" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K8" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B9" s="3">
         <v>6407756</v>
@@ -1026,29 +1078,36 @@
       <c r="D9" s="3">
         <v>9</v>
       </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
+      <c r="E9" s="3">
+        <v>893</v>
+      </c>
+      <c r="F9" s="3">
+        <v>69</v>
+      </c>
+      <c r="G9" s="3">
+        <v>20</v>
+      </c>
       <c r="H9" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>982</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J9" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K9" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B10" s="3">
         <v>6408709</v>
@@ -1059,29 +1118,36 @@
       <c r="D10" s="3">
         <v>418</v>
       </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
+      <c r="E10" s="3">
+        <v>237</v>
+      </c>
+      <c r="F10" s="3">
+        <v>436</v>
+      </c>
+      <c r="G10" s="3">
+        <v>129</v>
+      </c>
       <c r="H10" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>802</v>
       </c>
       <c r="I10" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J10" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="K10" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="3">
         <v>6417923</v>
@@ -1092,29 +1158,36 @@
       <c r="D11" s="3">
         <v>985</v>
       </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
+      <c r="E11" s="3">
+        <v>12</v>
+      </c>
+      <c r="F11" s="3">
+        <v>24</v>
+      </c>
+      <c r="G11" s="3">
+        <v>27</v>
+      </c>
       <c r="H11" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I11" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K11" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B12" s="3">
         <v>6409242</v>
@@ -1125,29 +1198,36 @@
       <c r="D12" s="3">
         <v>227</v>
       </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
+      <c r="E12" s="3">
+        <v>233</v>
+      </c>
+      <c r="F12" s="3">
+        <v>222</v>
+      </c>
+      <c r="G12" s="3">
+        <v>303</v>
+      </c>
       <c r="H12" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>758</v>
       </c>
       <c r="I12" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="J12" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K12" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3">
         <v>6410263</v>
@@ -1158,29 +1238,36 @@
       <c r="D13" s="3">
         <v>515</v>
       </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="E13" s="3">
+        <v>388</v>
+      </c>
+      <c r="F13" s="3">
+        <v>314</v>
+      </c>
+      <c r="G13" s="3">
+        <v>276</v>
+      </c>
       <c r="H13" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>978</v>
       </c>
       <c r="I13" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="J13" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3">
         <v>6409024</v>
@@ -1191,62 +1278,78 @@
       <c r="D14" s="3">
         <v>197</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
+      <c r="E14" s="3">
+        <v>116</v>
+      </c>
+      <c r="F14" s="3">
+        <v>95</v>
+      </c>
+      <c r="G14" s="3">
+        <v>85</v>
+      </c>
       <c r="H14" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="I14" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="J14" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="3">
+        <v>20</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="18">
         <v>6415779</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="18">
         <v>20</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="18">
         <v>891</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="4">
+      <c r="E15" s="18">
+        <v>120</v>
+      </c>
+      <c r="F15" s="18">
+        <v>85</v>
+      </c>
+      <c r="G15" s="18">
+        <v>65</v>
+      </c>
+      <c r="H15" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="4">
+        <v>270</v>
+      </c>
+      <c r="I15" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="5">
+        <v>14</v>
+      </c>
+      <c r="J15" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K15" s="6">
+        <v>17</v>
+      </c>
+      <c r="K15" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="3">
         <v>6412292</v>
@@ -1257,29 +1360,36 @@
       <c r="D16" s="3">
         <v>915</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
+      <c r="E16" s="3">
+        <v>61</v>
+      </c>
+      <c r="F16" s="3">
+        <v>54</v>
+      </c>
+      <c r="G16" s="3">
+        <v>69</v>
+      </c>
       <c r="H16" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="J16" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K16" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B17" s="3">
         <v>4125</v>
@@ -1290,29 +1400,36 @@
       <c r="D17" s="3">
         <v>455</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="E17" s="3">
+        <v>37</v>
+      </c>
+      <c r="F17" s="3">
+        <v>43</v>
+      </c>
+      <c r="G17" s="3">
+        <v>40</v>
+      </c>
       <c r="H17" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I17" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J17" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K17" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B18" s="3">
         <v>6414236</v>
@@ -1323,29 +1440,36 @@
       <c r="D18" s="3">
         <v>813</v>
       </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
+      <c r="E18" s="3">
+        <v>136</v>
+      </c>
+      <c r="F18" s="3">
+        <v>106</v>
+      </c>
+      <c r="G18" s="3">
+        <v>82</v>
+      </c>
       <c r="H18" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>324</v>
       </c>
       <c r="I18" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="J18" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="K18" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B19" s="3">
         <v>6415335</v>
@@ -1356,29 +1480,36 @@
       <c r="D19" s="3">
         <v>972</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
+      <c r="E19" s="3">
+        <v>37</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45</v>
+      </c>
+      <c r="G19" s="3">
+        <v>27</v>
+      </c>
       <c r="H19" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="I19" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J19" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K19" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B20" s="3">
         <v>6408671</v>
@@ -1389,29 +1520,37 @@
       <c r="D20" s="3">
         <v>337</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
+      <c r="E20" s="3">
+        <v>512</v>
+      </c>
+      <c r="F20" s="3">
+        <v>438</v>
+      </c>
+      <c r="G20" s="3">
+        <v>507</v>
+      </c>
       <c r="H20" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1457</v>
       </c>
       <c r="I20" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J20" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K20" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L20" s="3"/>
+      <c r="O20" s="15"/>
+    </row>
+    <row r="21" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="3">
         <v>6412896</v>
@@ -1422,29 +1561,36 @@
       <c r="D21" s="3">
         <v>812</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="E21" s="3">
+        <v>93</v>
+      </c>
+      <c r="F21" s="3">
+        <v>143</v>
+      </c>
+      <c r="G21" s="3">
+        <v>97</v>
+      </c>
       <c r="H21" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="I21" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J21" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K21" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B22" s="3">
         <v>6418592</v>
@@ -1455,29 +1601,36 @@
       <c r="D22" s="3">
         <v>863</v>
       </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
+      <c r="E22" s="3">
+        <v>4</v>
+      </c>
+      <c r="F22" s="3">
+        <v>33</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
       <c r="H22" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="I22" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K22" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B23" s="3">
         <v>230002</v>
@@ -1485,9 +1638,7 @@
       <c r="C23" s="3">
         <v>26</v>
       </c>
-      <c r="D23" s="3">
-        <v>942</v>
-      </c>
+      <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
@@ -1507,10 +1658,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B24" s="3">
         <v>6417926</v>
@@ -1538,10 +1690,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3">
         <v>6417712</v>
@@ -1569,10 +1722,11 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3">
         <v>6415538</v>
@@ -1583,29 +1737,36 @@
       <c r="D26" s="3">
         <v>1121</v>
       </c>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
+      <c r="E26" s="3">
+        <v>63</v>
+      </c>
+      <c r="F26" s="3">
+        <v>81</v>
+      </c>
+      <c r="G26" s="3">
+        <v>53</v>
+      </c>
       <c r="H26" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="J26" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="K26" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3">
         <v>227544</v>
@@ -1616,29 +1777,36 @@
       <c r="D27" s="3">
         <v>902</v>
       </c>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
+      <c r="E27" s="3">
+        <v>55</v>
+      </c>
+      <c r="F27" s="3">
+        <v>71</v>
+      </c>
+      <c r="G27" s="3">
+        <v>58</v>
+      </c>
       <c r="H27" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I27" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J27" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3">
         <v>195737</v>
@@ -1649,29 +1817,36 @@
       <c r="D28" s="3">
         <v>861</v>
       </c>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
+      <c r="E28" s="3">
+        <v>22</v>
+      </c>
+      <c r="F28" s="3">
+        <v>21</v>
+      </c>
+      <c r="G28" s="3">
+        <v>23</v>
+      </c>
       <c r="H28" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="I28" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J28" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K28" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B29" s="3">
         <v>203327</v>
@@ -1682,62 +1857,78 @@
       <c r="D29" s="3">
         <v>904</v>
       </c>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
+      <c r="E29" s="3">
+        <v>43</v>
+      </c>
+      <c r="F29" s="3">
+        <v>37</v>
+      </c>
+      <c r="G29" s="3">
+        <v>41</v>
+      </c>
       <c r="H29" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I29" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K29" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B30" s="3">
+        <v>4</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="18">
         <v>195746</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="18">
         <v>48</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="18">
         <v>872</v>
       </c>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="4">
+      <c r="E30" s="18">
+        <v>150</v>
+      </c>
+      <c r="F30" s="18">
+        <v>103</v>
+      </c>
+      <c r="G30" s="18">
+        <v>143</v>
+      </c>
+      <c r="H30" s="20">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I30" s="4">
+        <v>396</v>
+      </c>
+      <c r="I30" s="20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J30" s="5">
+        <v>9</v>
+      </c>
+      <c r="J30" s="21">
         <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="K30" s="6">
+        <v>11</v>
+      </c>
+      <c r="K30" s="22">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L30" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B31" s="3">
         <v>196641</v>
@@ -1748,29 +1939,36 @@
       <c r="D31" s="3">
         <v>920</v>
       </c>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
+      <c r="E31" s="3">
+        <v>7</v>
+      </c>
+      <c r="F31" s="3">
+        <v>5</v>
+      </c>
+      <c r="G31" s="3">
+        <v>14</v>
+      </c>
       <c r="H31" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I31" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K31" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" s="3">
         <v>182155</v>
@@ -1781,29 +1979,36 @@
       <c r="D32" s="3">
         <v>893</v>
       </c>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
+      <c r="E32" s="3">
+        <v>5</v>
+      </c>
+      <c r="F32" s="3">
+        <v>28</v>
+      </c>
+      <c r="G32" s="3">
+        <v>39</v>
+      </c>
       <c r="H32" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="I32" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K32" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B33" s="3">
         <v>5505443</v>
@@ -1814,29 +2019,36 @@
       <c r="D33" s="3">
         <v>875</v>
       </c>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
+      <c r="E33" s="3">
+        <v>81</v>
+      </c>
+      <c r="F33" s="3">
+        <v>68</v>
+      </c>
+      <c r="G33" s="3">
+        <v>68</v>
+      </c>
       <c r="H33" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="I33" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="J33" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="K33" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B34" s="3">
         <v>6403162</v>
@@ -1847,29 +2059,36 @@
       <c r="D34" s="3">
         <v>912</v>
       </c>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
+      <c r="E34" s="3">
+        <v>56</v>
+      </c>
+      <c r="F34" s="3">
+        <v>70</v>
+      </c>
+      <c r="G34" s="3">
+        <v>45</v>
+      </c>
       <c r="H34" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="I34" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K34" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B35" s="3">
         <v>6415264</v>
@@ -1880,29 +2099,36 @@
       <c r="D35" s="3">
         <v>964</v>
       </c>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
+      <c r="E35" s="3">
+        <v>50</v>
+      </c>
+      <c r="F35" s="3">
+        <v>28</v>
+      </c>
+      <c r="G35" s="3">
+        <v>43</v>
+      </c>
       <c r="H35" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="I35" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J35" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K35" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="3">
         <v>6409269</v>
@@ -1913,29 +2139,36 @@
       <c r="D36" s="3">
         <v>982</v>
       </c>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
+      <c r="E36" s="3">
+        <v>100</v>
+      </c>
+      <c r="F36" s="3">
+        <v>80</v>
+      </c>
+      <c r="G36" s="3">
+        <v>82</v>
+      </c>
       <c r="H36" s="4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>262</v>
       </c>
       <c r="I36" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J36" s="5">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K36" s="6">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B37" s="3">
         <v>1219</v>
@@ -1946,29 +2179,36 @@
       <c r="D37" s="3">
         <v>640</v>
       </c>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
+      <c r="E37" s="3">
+        <v>62</v>
+      </c>
+      <c r="F37" s="3">
+        <v>63</v>
+      </c>
+      <c r="G37" s="3">
+        <v>49</v>
+      </c>
       <c r="H37" s="4">
         <f t="shared" ref="H37:H68" si="4">E37+F37+G37</f>
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="I37" s="4">
         <f t="shared" ref="I37:I68" si="5">IF(C37=0,"",ROUNDUP(H37/C37,0))</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J37" s="5">
         <f t="shared" ref="J37:J68" si="6">IF(I37="","",ROUNDUP(I37*1.2,0))</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K37" s="6">
-        <f t="shared" ref="K37:K68" si="7">IF(I37="","",ROUNDUP(I37*1.3,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K37:L68" si="7">IF(I37="","",ROUNDUP(I37*1.3,0))</f>
+        <v>3</v>
+      </c>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B38" s="3">
         <v>6402493</v>
@@ -1979,29 +2219,36 @@
       <c r="D38" s="3">
         <v>877</v>
       </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="E38" s="3">
+        <v>220</v>
+      </c>
+      <c r="F38" s="3">
+        <v>135</v>
+      </c>
+      <c r="G38" s="3">
+        <v>133</v>
+      </c>
       <c r="H38" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="I38" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="J38" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K38" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B39" s="3">
         <v>6413187</v>
@@ -2012,62 +2259,78 @@
       <c r="D39" s="3">
         <v>986</v>
       </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
+      <c r="E39" s="3">
+        <v>102</v>
+      </c>
+      <c r="F39" s="3">
+        <v>82</v>
+      </c>
+      <c r="G39" s="3">
+        <v>83</v>
+      </c>
       <c r="H39" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>267</v>
       </c>
       <c r="I39" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J39" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K39" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="B40" s="3">
+        <v>4</v>
+      </c>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="18">
         <v>121471</v>
       </c>
-      <c r="C40" s="3">
+      <c r="C40" s="18">
         <v>120</v>
       </c>
-      <c r="D40" s="3">
+      <c r="D40" s="18">
         <v>857</v>
       </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="4">
+      <c r="E40" s="18">
+        <v>498</v>
+      </c>
+      <c r="F40" s="18">
+        <v>325</v>
+      </c>
+      <c r="G40" s="18">
+        <v>395</v>
+      </c>
+      <c r="H40" s="20">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I40" s="4">
+        <v>1218</v>
+      </c>
+      <c r="I40" s="20">
         <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J40" s="5">
+        <v>11</v>
+      </c>
+      <c r="J40" s="21">
         <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K40" s="6">
+        <v>14</v>
+      </c>
+      <c r="K40" s="22">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+        <v>15</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B41" s="3">
         <v>6019043</v>
@@ -2078,29 +2341,36 @@
       <c r="D41" s="3">
         <v>874</v>
       </c>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
+      <c r="E41" s="3">
+        <v>5</v>
+      </c>
+      <c r="F41" s="3">
+        <v>8</v>
+      </c>
+      <c r="G41" s="3">
+        <v>4</v>
+      </c>
       <c r="H41" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="I41" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K41" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B42" s="3">
         <v>227543</v>
@@ -2111,29 +2381,36 @@
       <c r="D42" s="3">
         <v>942</v>
       </c>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
+      <c r="E42" s="3">
+        <v>36</v>
+      </c>
+      <c r="F42" s="3">
+        <v>40</v>
+      </c>
+      <c r="G42" s="3">
+        <v>52</v>
+      </c>
       <c r="H42" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="I42" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J42" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K42" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B43" s="3">
         <v>6418416</v>
@@ -2161,10 +2438,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B44" s="3">
         <v>120914</v>
@@ -2175,29 +2453,36 @@
       <c r="D44" s="3">
         <v>868</v>
       </c>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="E44" s="3">
+        <v>30</v>
+      </c>
+      <c r="F44" s="3">
+        <v>30</v>
+      </c>
+      <c r="G44" s="3">
+        <v>42</v>
+      </c>
       <c r="H44" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="I44" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J44" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K44" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B45" s="3">
         <v>6410892</v>
@@ -2208,29 +2493,36 @@
       <c r="D45" s="3">
         <v>804</v>
       </c>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
+      <c r="E45" s="3">
+        <v>65</v>
+      </c>
+      <c r="F45" s="3">
+        <v>33</v>
+      </c>
+      <c r="G45" s="3">
+        <v>46</v>
+      </c>
       <c r="H45" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="I45" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J45" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K45" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B46" s="3">
         <v>6413893</v>
@@ -2258,10 +2550,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B47" s="3">
         <v>6403546</v>
@@ -2272,29 +2565,36 @@
       <c r="D47" s="3">
         <v>736</v>
       </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="E47" s="3">
+        <v>90</v>
+      </c>
+      <c r="F47" s="3">
+        <v>88</v>
+      </c>
+      <c r="G47" s="3">
+        <v>45</v>
+      </c>
       <c r="H47" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="I47" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J47" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K47" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B48" s="3">
         <v>6408014</v>
@@ -2305,29 +2605,36 @@
       <c r="D48" s="3">
         <v>998</v>
       </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="E48" s="3">
+        <v>144</v>
+      </c>
+      <c r="F48" s="3">
+        <v>97</v>
+      </c>
+      <c r="G48" s="3">
+        <v>119</v>
+      </c>
       <c r="H48" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="I48" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J48" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K48" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B49" s="3">
         <v>6416779</v>
@@ -2355,10 +2662,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B50" s="3">
         <v>6409350</v>
@@ -2369,29 +2677,36 @@
       <c r="D50" s="3">
         <v>281</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
+      <c r="E50" s="3">
+        <v>39</v>
+      </c>
+      <c r="F50" s="3">
+        <v>40</v>
+      </c>
+      <c r="G50" s="3">
+        <v>30</v>
+      </c>
       <c r="H50" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="I50" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J50" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K50" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B51" s="3">
         <v>6413584</v>
@@ -2402,29 +2717,36 @@
       <c r="D51" s="3">
         <v>968</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
+      <c r="E51" s="3">
+        <v>49</v>
+      </c>
+      <c r="F51" s="3">
+        <v>33</v>
+      </c>
+      <c r="G51" s="3">
+        <v>26</v>
+      </c>
       <c r="H51" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="I51" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K51" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="B52" s="3">
         <v>6410947</v>
@@ -2435,29 +2757,36 @@
       <c r="D52" s="3">
         <v>805</v>
       </c>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
+      <c r="E52" s="3">
+        <v>42</v>
+      </c>
+      <c r="F52" s="3">
+        <v>45</v>
+      </c>
+      <c r="G52" s="3">
+        <v>49</v>
+      </c>
       <c r="H52" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="I52" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J52" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K52" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B53" s="3">
         <v>6410801</v>
@@ -2468,29 +2797,36 @@
       <c r="D53" s="3">
         <v>809</v>
       </c>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="E53" s="3">
+        <v>105</v>
+      </c>
+      <c r="F53" s="3">
+        <v>69</v>
+      </c>
+      <c r="G53" s="3">
+        <v>65</v>
+      </c>
       <c r="H53" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="I53" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J53" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K53" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B54" s="3">
         <v>6410279</v>
@@ -2501,35 +2837,42 @@
       <c r="D54" s="3">
         <v>518</v>
       </c>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
+      <c r="E54" s="3">
+        <v>67</v>
+      </c>
+      <c r="F54" s="3">
+        <v>63</v>
+      </c>
+      <c r="G54" s="3">
+        <v>37</v>
+      </c>
       <c r="H54" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="I54" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J54" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K54" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B55" s="3">
         <v>6415628</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D55" s="3">
         <v>954</v>
@@ -2553,10 +2896,11 @@
         <f t="shared" si="7"/>
         <v>#VALUE!</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B56" s="3">
         <v>6407147</v>
@@ -2567,29 +2911,36 @@
       <c r="D56" s="3">
         <v>255</v>
       </c>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
+      <c r="E56" s="3">
+        <v>12</v>
+      </c>
+      <c r="F56" s="3">
+        <v>14</v>
+      </c>
+      <c r="G56" s="3">
+        <v>33</v>
+      </c>
       <c r="H56" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="I56" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K56" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B57" s="3">
         <v>6407790</v>
@@ -2600,29 +2951,36 @@
       <c r="D57" s="3">
         <v>691</v>
       </c>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
+      <c r="E57" s="3">
+        <v>33</v>
+      </c>
+      <c r="F57" s="3">
+        <v>13</v>
+      </c>
+      <c r="G57" s="3">
+        <v>17</v>
+      </c>
       <c r="H57" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="I57" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J57" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K57" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B58" s="3">
         <v>6413573</v>
@@ -2633,29 +2991,36 @@
       <c r="D58" s="3">
         <v>966</v>
       </c>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
+      <c r="E58" s="3">
+        <v>36</v>
+      </c>
+      <c r="F58" s="3">
+        <v>26</v>
+      </c>
+      <c r="G58" s="3">
+        <v>33</v>
+      </c>
       <c r="H58" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I58" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J58" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K58" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B59" s="3">
         <v>6413366</v>
@@ -2666,29 +3031,36 @@
       <c r="D59" s="3">
         <v>830</v>
       </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
+      <c r="E59" s="3">
+        <v>41</v>
+      </c>
+      <c r="F59" s="3">
+        <v>21</v>
+      </c>
+      <c r="G59" s="3">
+        <v>38</v>
+      </c>
       <c r="H59" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I59" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J59" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K59" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B60" s="3">
         <v>6418108</v>
@@ -2716,10 +3088,11 @@
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B61" s="3">
         <v>6411087</v>
@@ -2730,29 +3103,36 @@
       <c r="D61" s="3">
         <v>833</v>
       </c>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
+      <c r="E61" s="3">
+        <v>27</v>
+      </c>
+      <c r="F61" s="3">
+        <v>26</v>
+      </c>
+      <c r="G61" s="3">
+        <v>25</v>
+      </c>
       <c r="H61" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="I61" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J61" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K61" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B62" s="3">
         <v>6205048</v>
@@ -2763,29 +3143,36 @@
       <c r="D62" s="3">
         <v>950</v>
       </c>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
+      <c r="E62" s="3">
+        <v>83</v>
+      </c>
+      <c r="F62" s="3">
+        <v>60</v>
+      </c>
+      <c r="G62" s="3">
+        <v>52</v>
+      </c>
       <c r="H62" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I62" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J62" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K62" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B63" s="3">
         <v>6413595</v>
@@ -2796,29 +3183,36 @@
       <c r="D63" s="3">
         <v>810</v>
       </c>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
+      <c r="E63" s="3">
+        <v>50</v>
+      </c>
+      <c r="F63" s="3">
+        <v>49</v>
+      </c>
+      <c r="G63" s="3">
+        <v>33</v>
+      </c>
       <c r="H63" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="I63" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J63" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K63" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B64" s="3">
         <v>6413318</v>
@@ -2829,29 +3223,36 @@
       <c r="D64" s="3">
         <v>869</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
+      <c r="E64" s="3">
+        <v>20</v>
+      </c>
+      <c r="F64" s="3">
+        <v>29</v>
+      </c>
+      <c r="G64" s="3">
+        <v>18</v>
+      </c>
       <c r="H64" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="I64" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K64" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B65" s="3">
         <v>6413436</v>
@@ -2862,95 +3263,120 @@
       <c r="D65" s="3">
         <v>818</v>
       </c>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
+      <c r="E65" s="3">
+        <v>28</v>
+      </c>
+      <c r="F65" s="3">
+        <v>26</v>
+      </c>
+      <c r="G65" s="3">
+        <v>21</v>
+      </c>
       <c r="H65" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="I65" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K65" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="18">
+        <v>6413176</v>
+      </c>
+      <c r="C66" s="18">
+        <v>72</v>
+      </c>
+      <c r="D66" s="18">
+        <v>987</v>
+      </c>
+      <c r="E66" s="18">
+        <v>150</v>
+      </c>
+      <c r="F66" s="18">
+        <v>104</v>
+      </c>
+      <c r="G66" s="18">
+        <v>108</v>
+      </c>
+      <c r="H66" s="20">
+        <f t="shared" si="4"/>
+        <v>362</v>
+      </c>
+      <c r="I66" s="20">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="J66" s="21">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="K66" s="22">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="L66" s="18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="B67" s="18">
+        <v>6411796</v>
+      </c>
+      <c r="C67" s="18">
+        <v>96</v>
+      </c>
+      <c r="D67" s="18">
+        <v>827</v>
+      </c>
+      <c r="E67" s="18">
+        <v>236</v>
+      </c>
+      <c r="F67" s="18">
+        <v>38</v>
+      </c>
+      <c r="G67" s="18">
+        <v>55</v>
+      </c>
+      <c r="H67" s="20">
+        <f t="shared" si="4"/>
+        <v>329</v>
+      </c>
+      <c r="I67" s="20">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J67" s="21">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K67" s="22">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L67" s="18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B66" s="3">
-        <v>6413176</v>
-      </c>
-      <c r="C66" s="3">
-        <v>72</v>
-      </c>
-      <c r="D66" s="3">
-        <v>987</v>
-      </c>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I66" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J66" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K66" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B67" s="3">
-        <v>6411796</v>
-      </c>
-      <c r="C67" s="3">
-        <v>96</v>
-      </c>
-      <c r="D67" s="3">
-        <v>827</v>
-      </c>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="I67" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="J67" s="5">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="K67" s="6">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="B68" s="3">
         <v>6407996</v>
@@ -2961,29 +3387,36 @@
       <c r="D68" s="3">
         <v>359</v>
       </c>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
+      <c r="E68" s="3">
+        <v>150</v>
+      </c>
+      <c r="F68" s="3">
+        <v>102</v>
+      </c>
+      <c r="G68" s="3">
+        <v>175</v>
+      </c>
       <c r="H68" s="4">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>427</v>
       </c>
       <c r="I68" s="4">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J68" s="5">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K68" s="6">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B69" s="3">
         <v>6412051</v>
@@ -2994,29 +3427,36 @@
       <c r="D69" s="3">
         <v>883</v>
       </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="E69" s="3">
+        <v>286</v>
+      </c>
+      <c r="F69" s="3">
+        <v>208</v>
+      </c>
+      <c r="G69" s="3">
+        <v>236</v>
+      </c>
       <c r="H69" s="4">
-        <f t="shared" ref="H69:H100" si="8">E69+F69+G69</f>
-        <v>0</v>
+        <f t="shared" ref="H69:H75" si="8">E69+F69+G69</f>
+        <v>730</v>
       </c>
       <c r="I69" s="4">
-        <f t="shared" ref="I69:I100" si="9">IF(C69=0,"",ROUNDUP(H69/C69,0))</f>
-        <v>0</v>
+        <f t="shared" ref="I69:I75" si="9">IF(C69=0,"",ROUNDUP(H69/C69,0))</f>
+        <v>11</v>
       </c>
       <c r="J69" s="5">
-        <f t="shared" ref="J69:J100" si="10">IF(I69="","",ROUNDUP(I69*1.2,0))</f>
-        <v>0</v>
+        <f t="shared" ref="J69:J75" si="10">IF(I69="","",ROUNDUP(I69*1.2,0))</f>
+        <v>14</v>
       </c>
       <c r="K69" s="6">
-        <f t="shared" ref="K69:K75" si="11">IF(I69="","",ROUNDUP(I69*1.3,0))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K69:L75" si="11">IF(I69="","",ROUNDUP(I69*1.3,0))</f>
+        <v>15</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B70" s="3">
         <v>6415780</v>
@@ -3027,29 +3467,36 @@
       <c r="D70" s="3">
         <v>892</v>
       </c>
-      <c r="E70" s="3"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
+      <c r="E70" s="3">
+        <v>16</v>
+      </c>
+      <c r="F70" s="3">
+        <v>33</v>
+      </c>
+      <c r="G70" s="3">
+        <v>19</v>
+      </c>
       <c r="H70" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="I70" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J70" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K70" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B71" s="3">
         <v>227379</v>
@@ -3077,10 +3524,11 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B72" s="3">
         <v>6412286</v>
@@ -3091,29 +3539,36 @@
       <c r="D72" s="3">
         <v>837</v>
       </c>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
+      <c r="E72" s="3">
+        <v>66</v>
+      </c>
+      <c r="F72" s="3">
+        <v>36</v>
+      </c>
+      <c r="G72" s="3">
+        <v>18</v>
+      </c>
       <c r="H72" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="I72" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J72" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K72" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B73" s="3">
         <v>9002360</v>
@@ -3124,29 +3579,36 @@
       <c r="D73" s="3">
         <v>898</v>
       </c>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
+      <c r="E73" s="3">
+        <v>305</v>
+      </c>
+      <c r="F73" s="3">
+        <v>364</v>
+      </c>
+      <c r="G73" s="3">
+        <v>273</v>
+      </c>
       <c r="H73" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>942</v>
       </c>
       <c r="I73" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J73" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="K73" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B74" s="3">
         <v>4118</v>
@@ -3157,29 +3619,36 @@
       <c r="D74" s="3">
         <v>447</v>
       </c>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
+      <c r="E74" s="3">
+        <v>42</v>
+      </c>
+      <c r="F74" s="3">
+        <v>52</v>
+      </c>
+      <c r="G74" s="3">
+        <v>74</v>
+      </c>
       <c r="H74" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="I74" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="J74" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K74" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B75" s="3">
         <v>6400362</v>
@@ -3190,338 +3659,300 @@
       <c r="D75" s="3">
         <v>673</v>
       </c>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
+      <c r="E75" s="3">
+        <v>23</v>
+      </c>
+      <c r="F75" s="3">
+        <v>3</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
       <c r="H75" s="4">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="I75" s="4">
         <f t="shared" si="9"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J75" s="5">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K75" s="6">
         <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="B78" s="8"/>
-      <c r="C78" s="8"/>
-      <c r="D78" s="8"/>
-      <c r="E78" s="8"/>
-      <c r="F78" s="8"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="8"/>
-      <c r="I78" s="8"/>
-      <c r="J78" s="8"/>
-      <c r="K78" s="8"/>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A79" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79" s="8"/>
-      <c r="C79" s="8"/>
-      <c r="D79" s="8"/>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="8"/>
-      <c r="I79" s="8"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A80" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="B80" s="8"/>
-      <c r="C80" s="8"/>
-      <c r="D80" s="8"/>
-      <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="8"/>
-      <c r="I80" s="8"/>
-      <c r="J80" s="8"/>
-      <c r="K80" s="8"/>
+        <v>2</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="12"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
+      <c r="F78" s="9"/>
+      <c r="G78" s="9"/>
+      <c r="H78" s="9"/>
+      <c r="I78" s="9"/>
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="8"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
+      <c r="F79" s="9"/>
+      <c r="G79" s="9"/>
+      <c r="H79" s="9"/>
+      <c r="I79" s="9"/>
+      <c r="J79" s="9"/>
+      <c r="K79" s="9"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="8"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
+      <c r="F80" s="9"/>
+      <c r="G80" s="9"/>
+      <c r="H80" s="9"/>
+      <c r="I80" s="9"/>
+      <c r="J80" s="9"/>
+      <c r="K80" s="9"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81" s="8"/>
-      <c r="C81" s="8"/>
-      <c r="D81" s="8"/>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="8"/>
-      <c r="I81" s="8"/>
-      <c r="J81" s="8"/>
-      <c r="K81" s="8"/>
+      <c r="A81" s="8"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
+      <c r="F81" s="9"/>
+      <c r="G81" s="9"/>
+      <c r="H81" s="9"/>
+      <c r="I81" s="9"/>
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82" s="8"/>
-      <c r="C82" s="8"/>
-      <c r="D82" s="8"/>
-      <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="8"/>
-      <c r="I82" s="8"/>
-      <c r="J82" s="8"/>
-      <c r="K82" s="8"/>
+      <c r="A82" s="8"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
+      <c r="F82" s="9"/>
+      <c r="G82" s="9"/>
+      <c r="H82" s="9"/>
+      <c r="I82" s="9"/>
+      <c r="J82" s="9"/>
+      <c r="K82" s="9"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="B83" s="8"/>
-      <c r="C83" s="8"/>
-      <c r="D83" s="8"/>
-      <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="8"/>
-      <c r="I83" s="8"/>
-      <c r="J83" s="8"/>
-      <c r="K83" s="8"/>
+      <c r="A83" s="8"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9"/>
+      <c r="G83" s="9"/>
+      <c r="H83" s="9"/>
+      <c r="I83" s="9"/>
+      <c r="J83" s="9"/>
+      <c r="K83" s="9"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="B84" s="8"/>
-      <c r="C84" s="8"/>
-      <c r="D84" s="8"/>
-      <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="8"/>
-      <c r="I84" s="8"/>
-      <c r="J84" s="8"/>
-      <c r="K84" s="8"/>
+      <c r="A84" s="8"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
+      <c r="F84" s="9"/>
+      <c r="G84" s="9"/>
+      <c r="H84" s="9"/>
+      <c r="I84" s="9"/>
+      <c r="J84" s="9"/>
+      <c r="K84" s="9"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="B85" s="8"/>
-      <c r="C85" s="8"/>
-      <c r="D85" s="8"/>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="8"/>
-      <c r="I85" s="8"/>
-      <c r="J85" s="8"/>
-      <c r="K85" s="8"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
+      <c r="F85" s="9"/>
+      <c r="G85" s="9"/>
+      <c r="H85" s="9"/>
+      <c r="I85" s="9"/>
+      <c r="J85" s="9"/>
+      <c r="K85" s="9"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="B86" s="8"/>
-      <c r="C86" s="8"/>
-      <c r="D86" s="8"/>
-      <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="8"/>
-      <c r="I86" s="8"/>
-      <c r="J86" s="8"/>
-      <c r="K86" s="8"/>
+      <c r="A86" s="8"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
+      <c r="F86" s="9"/>
+      <c r="G86" s="9"/>
+      <c r="H86" s="9"/>
+      <c r="I86" s="9"/>
+      <c r="J86" s="9"/>
+      <c r="K86" s="9"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="B87" s="8"/>
-      <c r="C87" s="8"/>
-      <c r="D87" s="8"/>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="8"/>
-      <c r="I87" s="8"/>
-      <c r="J87" s="8"/>
-      <c r="K87" s="8"/>
+      <c r="A87" s="8"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
+      <c r="F87" s="9"/>
+      <c r="G87" s="9"/>
+      <c r="H87" s="9"/>
+      <c r="I87" s="9"/>
+      <c r="J87" s="9"/>
+      <c r="K87" s="9"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88" s="8"/>
-      <c r="C88" s="8"/>
-      <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="8"/>
-      <c r="I88" s="8"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
+      <c r="A88" s="8"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
+      <c r="F88" s="9"/>
+      <c r="G88" s="9"/>
+      <c r="H88" s="9"/>
+      <c r="I88" s="9"/>
+      <c r="J88" s="9"/>
+      <c r="K88" s="9"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B89" s="8"/>
-      <c r="C89" s="8"/>
-      <c r="D89" s="8"/>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="8"/>
-      <c r="I89" s="8"/>
-      <c r="J89" s="8"/>
-      <c r="K89" s="8"/>
+      <c r="A89" s="8"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
+      <c r="F89" s="9"/>
+      <c r="G89" s="9"/>
+      <c r="H89" s="9"/>
+      <c r="I89" s="9"/>
+      <c r="J89" s="9"/>
+      <c r="K89" s="9"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90" s="8"/>
-      <c r="C90" s="8"/>
-      <c r="D90" s="8"/>
-      <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="8"/>
-      <c r="I90" s="8"/>
-      <c r="J90" s="8"/>
-      <c r="K90" s="8"/>
+      <c r="A90" s="8"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
+      <c r="F90" s="9"/>
+      <c r="G90" s="9"/>
+      <c r="H90" s="9"/>
+      <c r="I90" s="9"/>
+      <c r="J90" s="9"/>
+      <c r="K90" s="9"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91" s="8"/>
-      <c r="C91" s="8"/>
-      <c r="D91" s="8"/>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="8"/>
-      <c r="I91" s="8"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
+      <c r="A91" s="8"/>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9"/>
+      <c r="F91" s="9"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="9"/>
+      <c r="I91" s="9"/>
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="B92" s="8"/>
-      <c r="C92" s="8"/>
-      <c r="D92" s="8"/>
-      <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="8"/>
-      <c r="I92" s="8"/>
-      <c r="J92" s="8"/>
-      <c r="K92" s="8"/>
+      <c r="A92" s="8"/>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9"/>
+      <c r="F92" s="9"/>
+      <c r="G92" s="9"/>
+      <c r="H92" s="9"/>
+      <c r="I92" s="9"/>
+      <c r="J92" s="9"/>
+      <c r="K92" s="9"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B93" s="8"/>
-      <c r="C93" s="8"/>
-      <c r="D93" s="8"/>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="8"/>
-      <c r="I93" s="8"/>
-      <c r="J93" s="8"/>
-      <c r="K93" s="8"/>
+      <c r="A93" s="8"/>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9"/>
+      <c r="F93" s="9"/>
+      <c r="G93" s="9"/>
+      <c r="H93" s="9"/>
+      <c r="I93" s="9"/>
+      <c r="J93" s="9"/>
+      <c r="K93" s="9"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="B94" s="8"/>
-      <c r="C94" s="8"/>
-      <c r="D94" s="8"/>
-      <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="8"/>
-      <c r="I94" s="8"/>
-      <c r="J94" s="8"/>
-      <c r="K94" s="8"/>
+      <c r="A94" s="8"/>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9"/>
+      <c r="F94" s="9"/>
+      <c r="G94" s="9"/>
+      <c r="H94" s="9"/>
+      <c r="I94" s="9"/>
+      <c r="J94" s="9"/>
+      <c r="K94" s="9"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A95" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="B95" s="8"/>
-      <c r="C95" s="8"/>
-      <c r="D95" s="8"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="8"/>
-      <c r="I95" s="8"/>
-      <c r="J95" s="8"/>
-      <c r="K95" s="8"/>
+      <c r="A95" s="8"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="9"/>
+      <c r="F95" s="9"/>
+      <c r="G95" s="9"/>
+      <c r="H95" s="9"/>
+      <c r="I95" s="9"/>
+      <c r="J95" s="9"/>
+      <c r="K95" s="9"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" s="7"/>
-      <c r="B96" s="8"/>
-      <c r="C96" s="8"/>
-      <c r="D96" s="8"/>
-      <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="8"/>
-      <c r="I96" s="8"/>
-      <c r="J96" s="8"/>
-      <c r="K96" s="8"/>
+      <c r="A96" s="8"/>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9"/>
+      <c r="F96" s="9"/>
+      <c r="G96" s="9"/>
+      <c r="H96" s="9"/>
+      <c r="I96" s="9"/>
+      <c r="J96" s="9"/>
+      <c r="K96" s="9"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B97" s="8"/>
-      <c r="C97" s="8"/>
-      <c r="D97" s="8"/>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="8"/>
-      <c r="I97" s="8"/>
-      <c r="J97" s="8"/>
-      <c r="K97" s="8"/>
+      <c r="A97" s="8"/>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9"/>
+      <c r="F97" s="9"/>
+      <c r="G97" s="9"/>
+      <c r="H97" s="9"/>
+      <c r="I97" s="9"/>
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A95:K95"/>
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A85:K85"/>
-    <mergeCell ref="A91:K91"/>
-    <mergeCell ref="A97:K97"/>
-    <mergeCell ref="A96:K96"/>
-    <mergeCell ref="A81:K81"/>
-    <mergeCell ref="A93:K93"/>
-    <mergeCell ref="A83:K83"/>
-    <mergeCell ref="A92:K92"/>
-    <mergeCell ref="A82:K82"/>
-    <mergeCell ref="A1:K1"/>
     <mergeCell ref="A94:K94"/>
     <mergeCell ref="A79:K79"/>
     <mergeCell ref="A88:K88"/>
@@ -3532,7 +3963,20 @@
     <mergeCell ref="A80:K80"/>
     <mergeCell ref="A89:K89"/>
     <mergeCell ref="A86:K86"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A95:K95"/>
+    <mergeCell ref="A85:K85"/>
+    <mergeCell ref="A91:K91"/>
+    <mergeCell ref="A97:K97"/>
+    <mergeCell ref="A96:K96"/>
+    <mergeCell ref="A81:K81"/>
+    <mergeCell ref="A93:K93"/>
+    <mergeCell ref="A83:K83"/>
+    <mergeCell ref="A92:K92"/>
+    <mergeCell ref="A82:K82"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>